--- a/1_Result_Tables/3_naive_forecaster_qoq_evaluations_20101_20181/AVERAGE_10_6_qoq_forecast_error_table_latest_eval_20101_20181.xlsx
+++ b/1_Result_Tables/3_naive_forecaster_qoq_evaluations_20101_20181/AVERAGE_10_6_qoq_forecast_error_table_latest_eval_20101_20181.xlsx
@@ -441,22 +441,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.225931829069245</v>
+        <v>-0.1341439519111721</v>
       </c>
       <c r="C2">
-        <v>0.6082682996536745</v>
+        <v>0.5935102738008631</v>
       </c>
       <c r="D2">
-        <v>0.6432824340016682</v>
+        <v>0.6921245334844653</v>
       </c>
       <c r="E2">
-        <v>0.8020488975129061</v>
+        <v>0.8319402223023391</v>
       </c>
       <c r="F2">
-        <v>0.7815015396317626</v>
+        <v>0.8463232565061951</v>
       </c>
       <c r="G2">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -464,22 +464,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.2277035640115044</v>
+        <v>-0.2124529600720004</v>
       </c>
       <c r="C3">
-        <v>0.6045026833449316</v>
+        <v>0.6536332604753219</v>
       </c>
       <c r="D3">
-        <v>0.6469299540113179</v>
+        <v>0.6702315204652148</v>
       </c>
       <c r="E3">
-        <v>0.804319559634924</v>
+        <v>0.8186766886049797</v>
       </c>
       <c r="F3">
-        <v>0.7833755954058018</v>
+        <v>0.8149624003509157</v>
       </c>
       <c r="G3">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -487,22 +487,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.1422081016571142</v>
+        <v>-0.04676944887512436</v>
       </c>
       <c r="C4">
-        <v>0.554599003943689</v>
+        <v>0.4652140835355437</v>
       </c>
       <c r="D4">
-        <v>0.4903424003524007</v>
+        <v>0.3214984223373458</v>
       </c>
       <c r="E4">
-        <v>0.7002445289699882</v>
+        <v>0.5670083088785788</v>
       </c>
       <c r="F4">
-        <v>0.6962833352385825</v>
+        <v>0.5824671501905423</v>
       </c>
       <c r="G4">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -510,22 +510,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.1264744230652894</v>
+        <v>-0.09716908889197996</v>
       </c>
       <c r="C5">
-        <v>0.5328201566879296</v>
+        <v>0.6607097935511106</v>
       </c>
       <c r="D5">
-        <v>0.4777354392458505</v>
+        <v>0.7106863686113114</v>
       </c>
       <c r="E5">
-        <v>0.6911840849193871</v>
+        <v>0.8430221637722886</v>
       </c>
       <c r="F5">
-        <v>0.6900500155186452</v>
+        <v>0.8631757181035996</v>
       </c>
       <c r="G5">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -533,22 +533,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.1264851127934885</v>
+        <v>-0.1115222062452062</v>
       </c>
       <c r="C6">
-        <v>0.4952654054273392</v>
+        <v>0.3482313290500288</v>
       </c>
       <c r="D6">
-        <v>0.4398516612144325</v>
+        <v>0.1948460206860828</v>
       </c>
       <c r="E6">
-        <v>0.6632131340786553</v>
+        <v>0.4414136616441349</v>
       </c>
       <c r="F6">
-        <v>0.6611343201283326</v>
+        <v>0.4402378554120513</v>
       </c>
       <c r="G6">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -556,22 +556,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.07335649799815935</v>
+        <v>-0.006406154181615844</v>
       </c>
       <c r="C7">
-        <v>0.4343904405470708</v>
+        <v>0.5272075584481162</v>
       </c>
       <c r="D7">
-        <v>0.2857826925684209</v>
+        <v>0.4114983443300604</v>
       </c>
       <c r="E7">
-        <v>0.5345864687479668</v>
+        <v>0.6414813670949925</v>
       </c>
       <c r="F7">
-        <v>0.5377397736535073</v>
+        <v>0.6611908855342594</v>
       </c>
       <c r="G7">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -579,22 +579,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.07675220091994556</v>
+        <v>-0.08290538230610117</v>
       </c>
       <c r="C8">
-        <v>0.4353524859435993</v>
+        <v>0.3521295447676658</v>
       </c>
       <c r="D8">
-        <v>0.2599950977872794</v>
+        <v>0.1561676696427139</v>
       </c>
       <c r="E8">
-        <v>0.5098971443215576</v>
+        <v>0.3951805532193023</v>
       </c>
       <c r="F8">
-        <v>0.5119032658728226</v>
+        <v>0.3982778743278431</v>
       </c>
       <c r="G8">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/3_naive_forecaster_qoq_evaluations_20101_20181/AVERAGE_10_6_qoq_forecast_error_table_latest_eval_20101_20181.xlsx
+++ b/1_Result_Tables/3_naive_forecaster_qoq_evaluations_20101_20181/AVERAGE_10_6_qoq_forecast_error_table_latest_eval_20101_20181.xlsx
@@ -556,22 +556,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.006406154181615844</v>
+        <v>-0.02926116508521665</v>
       </c>
       <c r="C7">
-        <v>0.5272075584481162</v>
+        <v>0.4237601240853551</v>
       </c>
       <c r="D7">
-        <v>0.4114983443300604</v>
+        <v>0.2924717721126746</v>
       </c>
       <c r="E7">
-        <v>0.6414813670949925</v>
+        <v>0.5408065939988848</v>
       </c>
       <c r="F7">
-        <v>0.6611908855342594</v>
+        <v>0.5727717703168048</v>
       </c>
       <c r="G7">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -579,22 +579,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.08290538230610117</v>
+        <v>-0.0867339457287771</v>
       </c>
       <c r="C8">
-        <v>0.3521295447676658</v>
+        <v>0.340876242626539</v>
       </c>
       <c r="D8">
-        <v>0.1561676696427139</v>
+        <v>0.1524713185586605</v>
       </c>
       <c r="E8">
-        <v>0.3951805532193023</v>
+        <v>0.3904757592458979</v>
       </c>
       <c r="F8">
-        <v>0.3982778743278431</v>
+        <v>0.4038156867546136</v>
       </c>
       <c r="G8">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
